--- a/Prototypes/Sorghum/Observed.xlsx
+++ b/Prototypes/Sorghum/Observed.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ApsimX\Prototypes\Sorghum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ApsimX\Prototypes\Sorghum\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3C946A-5382-4774-93CA-99FE7623D8F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15015"/>
+    <workbookView xWindow="51600" yWindow="300" windowWidth="24930" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -309,45 +310,9 @@
     <t>T9</t>
   </si>
   <si>
-    <t>Sorghum_BW8 GxE_T1</t>
-  </si>
-  <si>
     <t>BW8 GxE</t>
   </si>
   <si>
-    <t>Sorghum_BW8 GxE_T10</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T11</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T12</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T2</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T3</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T4</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T5</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T6</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T7</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T8</t>
-  </si>
-  <si>
-    <t>Sorghum_BW8 GxE_T9</t>
-  </si>
-  <si>
     <t>Sorghum_LE13_Buster+I+N</t>
   </si>
   <si>
@@ -496,12 +461,48 @@
   </si>
   <si>
     <t>SimulationName</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T1</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T10</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T11</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T12</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T2</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T3</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T4</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T5</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T6</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T7</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T8</t>
+  </si>
+  <si>
+    <t>Sorghum_BW8_GxE_T9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1301,11 +1302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1317,7 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4924,10 +4925,10 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
         <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>97</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -4992,10 +4993,10 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -5060,10 +5061,10 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
@@ -5128,10 +5129,10 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
@@ -5196,10 +5197,10 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
@@ -5264,10 +5265,10 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -5332,10 +5333,10 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>85</v>
@@ -5400,10 +5401,10 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
@@ -5468,10 +5469,10 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
@@ -5536,10 +5537,10 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
@@ -5604,10 +5605,10 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>93</v>
@@ -5672,10 +5673,10 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
         <v>95</v>
@@ -5740,13 +5741,13 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D50">
         <v>17191.8</v>
@@ -5835,13 +5836,13 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D51">
         <v>16532.900000000001</v>
@@ -5930,13 +5931,13 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D52">
         <v>11731.4</v>
@@ -6025,13 +6026,13 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D53">
         <v>18434.3</v>
@@ -6120,13 +6121,13 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D54">
         <v>17329.900000000001</v>
@@ -6215,13 +6216,13 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D55">
         <v>12128.5</v>
@@ -6310,13 +6311,13 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D56">
         <v>16467.3</v>
@@ -6399,13 +6400,13 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D57">
         <v>23462.2</v>
@@ -6488,13 +6489,13 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D58">
         <v>17748.099999999999</v>
@@ -6577,13 +6578,13 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D59">
         <v>13104.6</v>
@@ -6663,13 +6664,13 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D60">
         <v>13445.5</v>
@@ -6749,13 +6750,13 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D61">
         <v>15789.8</v>
@@ -6835,7 +6836,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
         <v>75</v>
@@ -6903,10 +6904,10 @@
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63">
         <v>12923.9</v>
@@ -6971,10 +6972,10 @@
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
         <v>41</v>
@@ -7048,10 +7049,10 @@
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
         <v>43</v>
@@ -7125,10 +7126,10 @@
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
@@ -7202,10 +7203,10 @@
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
         <v>41</v>
@@ -7288,10 +7289,10 @@
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
         <v>43</v>
@@ -7374,10 +7375,10 @@
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
         <v>45</v>
@@ -7460,10 +7461,10 @@
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
@@ -7546,10 +7547,10 @@
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
         <v>87</v>
@@ -7632,10 +7633,10 @@
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
         <v>89</v>
@@ -7718,10 +7719,10 @@
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
         <v>91</v>
@@ -7804,10 +7805,10 @@
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
         <v>93</v>
@@ -7890,10 +7891,10 @@
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7964,10 +7965,10 @@
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -8038,10 +8039,10 @@
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -8112,10 +8113,10 @@
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -8186,10 +8187,10 @@
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -8260,10 +8261,10 @@
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -8334,10 +8335,10 @@
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C81">
         <v>7</v>
@@ -8408,10 +8409,10 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C82">
         <v>8</v>
@@ -8482,10 +8483,10 @@
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C83">
         <v>9</v>
